--- a/patient_data/patient_20.xlsx
+++ b/patient_data/patient_20.xlsx
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1146,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1377,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1638,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1715,16 +1715,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1792,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
